--- a/data/income_statement/2digits/size/75_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/75_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>75-Veterinary activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>75-Veterinary activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,104 +841,119 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>14755.81697</v>
+        <v>13980.02784</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>25430.51901</v>
+        <v>21047.31159</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>47224.22896</v>
+        <v>43634.49404999999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>61205.96078</v>
+        <v>59477.89579</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>83019.08485</v>
+        <v>75987.33159</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>109465.66678</v>
+        <v>101367.27256</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>145400.18672</v>
+        <v>138014.94636</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>163909.77678</v>
+        <v>163716.81345</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>255120.95055</v>
+        <v>244905.32838</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>158351.31181</v>
+        <v>142502.40397</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>215420.58811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>198099.08625</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>327255.473</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>14550.88693</v>
+        <v>13781.0978</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>24598.56512</v>
+        <v>20833.8508</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>45870.3425</v>
+        <v>42408.72434</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>60136.03259</v>
+        <v>58526.09813000001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>80575.22873999999</v>
+        <v>73724.67822</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>107073.22174</v>
+        <v>98990.13912000001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>141928.56904</v>
+        <v>134754.7894</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>160231.78151</v>
+        <v>160137.48994</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>248082.14007</v>
+        <v>238403.85847</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>154352.40036</v>
+        <v>138755.55508</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>210033.1634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>192893.78692</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>317316.604</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>564.67681</v>
+        <v>0</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>485.91337</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>278.7265</v>
+        <v>243.5265</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>4.7206</v>
@@ -1055,61 +971,71 @@
         <v>407.10365</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>250.80289</v>
+        <v>150.49744</v>
       </c>
       <c r="M7" s="48" t="n">
         <v>193.55809</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>3663.338</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>204.93004</v>
+        <v>198.93004</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>267.27708</v>
+        <v>213.46079</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>867.97309</v>
+        <v>739.8563399999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>791.20169</v>
+        <v>708.27116</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2439.13551</v>
+        <v>2257.93277</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2392.44504</v>
+        <v>2377.13344</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>3399.92526</v>
+        <v>3188.46454</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>3624.64935</v>
+        <v>3525.97759</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>6631.70683</v>
+        <v>6094.36626</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3748.10856</v>
+        <v>3596.35145</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>5193.86662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>5011.74124</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>6275.531</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>8.09957</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>9.456059999999999</v>
+        <v>6.27808</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>99.70533</v>
@@ -1118,31 +1044,36 @@
         <v>179.16681</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>605.43963</v>
+        <v>398.66557</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>126.74555</v>
+        <v>118.59011</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>393.64773</v>
+        <v>389.3809</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>470.62916</v>
+        <v>455.47667</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1323.3079</v>
+        <v>1301.0175</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>548.14337</v>
+        <v>545.4171600000001</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>843.93814</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>757.472</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>8.02253</v>
@@ -1157,37 +1088,42 @@
         <v>177.19497</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>601.28389</v>
+        <v>394.50983</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>106.53131</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>330.90468</v>
+        <v>326.63785</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>430.88367</v>
+        <v>415.83368</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1249.75016</v>
+        <v>1228.1551</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>444.92552</v>
+        <v>442.19931</v>
       </c>
       <c r="M10" s="48" t="n">
         <v>475.07196</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>652.4690000000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0.02704</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>3.17798</v>
+        <v>0</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>4.9</v>
@@ -1205,10 +1141,10 @@
         <v>27.94107</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>38.24549</v>
+        <v>38.14299</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>33.56454</v>
+        <v>32.8692</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>17.9427</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>42.90222</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>27.127</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0.05</v>
@@ -1238,7 +1179,7 @@
         <v>1.02293</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>8.15544</v>
+        <v>0</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>34.80198</v>
@@ -1255,104 +1196,119 @@
       <c r="M12" s="48" t="n">
         <v>325.96396</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>77.876</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>14747.7174</v>
+        <v>13971.92827</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>25421.06295</v>
+        <v>21041.03351</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>47124.52363</v>
+        <v>43534.78872</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>61026.79397</v>
+        <v>59298.72898</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>82413.64522000001</v>
+        <v>75588.66601999999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>109338.92123</v>
+        <v>101248.68245</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>145006.53899</v>
+        <v>137625.56546</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>163439.14762</v>
+        <v>163261.33678</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>253797.64265</v>
+        <v>243604.31088</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>157803.16844</v>
+        <v>141956.98681</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>214576.64997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>197255.14811</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>326498.001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>10884.01648</v>
+        <v>10237.60972</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>18981.25066</v>
+        <v>15644.78362</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>35687.92729</v>
+        <v>32194.90607</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>47353.34386</v>
+        <v>46949.79199000001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>62783.61662</v>
+        <v>58917.10152</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>85173.64784000001</v>
+        <v>79513.89658</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>112499.67973</v>
+        <v>107296.3729</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>125742.07876</v>
+        <v>126568.4493</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>195679.85645</v>
+        <v>190949.00347</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>122794.16293</v>
+        <v>109032.42111</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>162844.44368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>148438.07064</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>255898.307</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>967.0973299999999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4280.674599999999</v>
+        <v>2545.91578</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4435.344059999999</v>
+        <v>3396.41512</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2702.18322</v>
+        <v>2274.02529</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>5114.84104</v>
+        <v>4810.02833</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>5545.144730000001</v>
@@ -1361,61 +1317,71 @@
         <v>3890.4852</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2698.50853</v>
+        <v>3560.57704</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>13311.24894</v>
+        <v>13032.89313</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7190.51514</v>
+        <v>6134.017519999999</v>
       </c>
       <c r="M15" s="48" t="n">
         <v>2230.97224</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>2351.065</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>6242.23402</v>
+        <v>5595.82726</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>11367.21494</v>
+        <v>9765.506720000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>25755.53203</v>
+        <v>22696.55466</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>37371.16216</v>
+        <v>35535.85232</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>48593.17134</v>
+        <v>44733.64344</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>65390.26349</v>
+        <v>60954.95206</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>88570.59655</v>
+        <v>84421.5266</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>99121.96212000001</v>
+        <v>99258.61332999999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>144137.4609</v>
+        <v>140780.58198</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>85377.68045999999</v>
+        <v>74669.3585</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>122613.40664</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>109734.34258</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>200216.221</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>3671.3508</v>
@@ -1424,37 +1390,42 @@
         <v>3322.93912</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>5483.31477</v>
+        <v>6088.199860000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>7073.291139999999</v>
+        <v>8933.207039999999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>8992.468650000001</v>
+        <v>9290.294159999999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>14232.1512</v>
+        <v>13007.71137</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>19834.98583</v>
+        <v>18780.74895</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>23886.0697</v>
+        <v>23713.72052</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>35906.2632</v>
+        <v>34810.64495</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>30083.66008</v>
+        <v>28086.73784</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>36902.36314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>35375.05416</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>52667.007</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>3.33433</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>1097.70166</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>664.014</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3863.70092</v>
+        <v>3734.31855</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>6439.81229</v>
+        <v>5396.24989</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>11436.59634</v>
+        <v>11339.88265</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>13673.45011</v>
+        <v>12348.93699</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>19630.0286</v>
+        <v>16671.5645</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>24165.27339</v>
+        <v>21734.78587</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>32506.85926</v>
+        <v>30329.19256</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>37697.06886</v>
+        <v>36692.88748</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>58117.7862</v>
+        <v>52655.30740999999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>35009.00551</v>
+        <v>32924.5657</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>51732.20629</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>48817.07747</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>70599.694</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>3010.71163</v>
+        <v>2813.45008</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>5125.43672</v>
+        <v>4385.44783</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>8875.895369999998</v>
+        <v>8346.38999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>9793.31669</v>
+        <v>9514.578210000001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>13095.96342</v>
+        <v>11860.67629</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>15967.74344</v>
+        <v>14720.8536</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>22070.51326</v>
+        <v>20711.83442</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>26728.35651</v>
+        <v>25875.15063</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>38639.58270000001</v>
+        <v>34517.04542</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>30360.64374</v>
+        <v>28950.62166</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>40200.57662</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>38163.59821</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>49246.48</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>100.99473</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>466.44576</v>
+        <v>435.59347</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1376.4324</v>
+        <v>1343.91282</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1611.65481</v>
+        <v>1546.35886</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2347.76638</v>
+        <v>2117.64069</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1830.72596</v>
+        <v>1730.78042</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>4245.457429999999</v>
+        <v>4166.98217</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>5917.37968</v>
+        <v>5679.82537</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>8235.74145</v>
+        <v>7312.60289</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>5016.56039</v>
+        <v>5012.31648</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>7703.70736</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>7041.77535</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>9305.514999999999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>2909.7169</v>
+        <v>2712.45535</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>4658.99096</v>
+        <v>3949.85436</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>7499.46297</v>
+        <v>7002.47717</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>8181.66188</v>
+        <v>7968.219349999999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>10748.19704</v>
+        <v>9743.035599999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>14137.01748</v>
+        <v>12990.07318</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>17825.05583</v>
+        <v>16544.85225</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>20810.97683</v>
+        <v>20195.32526</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>30403.84125</v>
+        <v>27204.44253</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>25344.08335</v>
+        <v>23938.30518</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>32496.86926</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>31121.82286</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>39940.965</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>852.98929</v>
+        <v>920.86847</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1314.37557</v>
+        <v>1010.80206</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2560.70097</v>
+        <v>2993.49266</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>3880.13342</v>
+        <v>2834.35878</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>6534.06518</v>
+        <v>4810.88821</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>8197.52995</v>
+        <v>7013.932269999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>10436.346</v>
+        <v>9617.35814</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>10968.71235</v>
+        <v>10817.73685</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>19478.2035</v>
+        <v>18138.26199</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4648.36177</v>
+        <v>3973.94404</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>11531.62967</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>10653.47926</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>21353.214</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>48.37604</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>240.77898</v>
+        <v>87.93375</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>185.08104</v>
+        <v>109.37101</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>153.39225</v>
+        <v>102.84031</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>175.04829</v>
+        <v>151.55037</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>422.86686</v>
+        <v>397.62091</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>631.4324</v>
+        <v>554.87024</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1262.3549</v>
+        <v>1134.75407</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>2271.04064</v>
+        <v>2314.74798</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2374.98455</v>
+        <v>1923.21159</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2385.77379</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1772.99289</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1367.627</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>0.9092</v>
@@ -1856,34 +1877,39 @@
         <v>3.53492</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>57.11208999999999</v>
+        <v>8.06053</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>75.83633999999999</v>
+        <v>54.33576</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>73.97241</v>
+        <v>63.3885</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>189.90516</v>
+        <v>189.7454</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>161.85708</v>
+        <v>160.7327</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>357.50887</v>
+        <v>321.34432</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>426.68977</v>
+        <v>34.0304</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>635.97028</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>82.92468</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>258.585</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1913,16 +1939,21 @@
         <v>0</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>4.6885</v>
+        <v>0</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1043.56929</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>0</v>
@@ -1970,19 +2006,19 @@
         <v>0</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>0.01347</v>
+        <v>0</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>3.59632</v>
+        <v>0.14913</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>0.00861</v>
+        <v>0</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>0.00168</v>
+        <v>0</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>7.61922</v>
+        <v>7.46048</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>117.66911</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>74.55221</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>14.122</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>0.00066</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>103.6306</v>
+        <v>0.8476</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>45.82647</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>5.33947</v>
+        <v>2.34447</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>7.14897</v>
+        <v>6.63241</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>8.6174</v>
+        <v>7.80039</v>
       </c>
       <c r="I32" s="48" t="n">
         <v>175.97058</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>285.21876</v>
+        <v>280.02534</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>107.54206</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>291.31295</v>
+        <v>236.88786</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>131.08961</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>71.06886</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>621.4930000000001</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>47.46618</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>136.78963</v>
+        <v>86.72739999999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>135.70618</v>
+        <v>60.00962000000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>80.6365</v>
+        <v>85.57831</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>92.05436999999999</v>
+        <v>90.5822</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>340.27537</v>
+        <v>326.43202</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>257.93744</v>
+        <v>181.69378</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>696.27824</v>
+        <v>574.9952099999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1023.53346</v>
+        <v>1103.40535</v>
       </c>
       <c r="L35" s="48" t="n">
         <v>590.0403100000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>500.5924</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>500.87785</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>473.129</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>11.82753</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>113.12171</v>
+        <v>23.71001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>260.05415</v>
+        <v>221.05907</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>52.08316000000001</v>
+        <v>51.66918</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>22.84213</v>
+        <v>25.3417</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>128.19844</v>
+        <v>128.13409</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>184.8518</v>
+        <v>166.06465</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>478.05856</v>
+        <v>478.05852</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>388.95661</v>
+        <v>372.84254</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>677.6877900000001</v>
+        <v>658.3704399999999</v>
       </c>
       <c r="M36" s="47" t="n">
         <v>323.03776</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>899.175</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0</v>
@@ -2222,7 +2288,7 @@
         <v>198.12604</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>106.13872</v>
+        <v>102.60566</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>130.72986</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>173.65461</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>101.968</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>66.04600000000001</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,23 +2384,28 @@
       <c r="M39" s="48" t="n">
         <v>10.25932</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>0.10623</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>68.79413000000001</v>
+        <v>0</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>95.94688000000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1.00465</v>
+        <v>0.594</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>1.64004</v>
@@ -2333,25 +2414,30 @@
         <v>8.00999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>37.29698</v>
+        <v>35.7382</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>19.61587</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>205.64023</v>
+        <v>193.63382</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>348.69797</v>
+        <v>329.38733</v>
       </c>
       <c r="M40" s="48" t="n">
         <v>92.26297</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>711.47</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>3.61887</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,134 +2516,154 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>11.7213</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>44.32758</v>
+        <v>23.71001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>155.99502</v>
+        <v>116.99994</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>50.39201</v>
+        <v>50.38868</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>14.22877</v>
+        <v>16.72834</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>80.23746000000001</v>
+        <v>80.17310999999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>56.39019</v>
+        <v>39.16182</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>111.2782</v>
+        <v>111.27816</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>54.1204</v>
+        <v>53.5458</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>198.08023</v>
+        <v>198.07352</v>
       </c>
       <c r="M43" s="48" t="n">
         <v>43.24199</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>19.691</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>160.20934</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>304.80987</v>
+        <v>230.24501</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>319.75995</v>
+        <v>397.44826</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>404.84454</v>
+        <v>919.59077</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>625.58155</v>
+        <v>787.65194</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>949.7266800000001</v>
+        <v>927.64117</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1511.63497</v>
+        <v>1499.22042</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1840.58807</v>
+        <v>1806.22847</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>3615.01551</v>
+        <v>3440.07756</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2842.69626</v>
+        <v>2586.53948</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>4279.15196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3788.59897</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4878.605</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>160.20934</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>264.54247</v>
+        <v>227.44202</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>300.81287</v>
+        <v>378.50118</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>393.96543</v>
+        <v>908.7116600000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>618.02973</v>
+        <v>780.1001199999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>846.61259</v>
+        <v>824.52708</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1157.09839</v>
+        <v>1144.68384</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1789.58086</v>
+        <v>1765.90053</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2927.41315</v>
+        <v>2752.4752</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2604.52312</v>
+        <v>2348.36634</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3938.30206</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3447.74907</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4354.325</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>40.2674</v>
+        <v>2.80299</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>18.94708</v>
@@ -2570,7 +2681,7 @@
         <v>354.53658</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>51.00721</v>
+        <v>40.32794000000001</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>687.60236</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>340.8499</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>524.28</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>729.32846</v>
+        <v>797.20764</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1137.22297</v>
+        <v>844.78079</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2165.96791</v>
+        <v>2484.35634</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3576.59797</v>
+        <v>1965.93914</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>6060.68979</v>
+        <v>4149.44494</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>7542.47169</v>
+        <v>6355.77792</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>9371.291630000002</v>
+        <v>8506.943310000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>9912.420619999999</v>
+        <v>9668.20393</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>17745.27202</v>
+        <v>16640.08987</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>3502.96227</v>
+        <v>2652.24571</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>9315.213740000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>8314.835419999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>16943.061</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>12.19754</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>101.54004</v>
+        <v>96.01342</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>184.29044</v>
+        <v>147.61071</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>385.82049</v>
+        <v>436.8222</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>227.56999</v>
+        <v>155.71334</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>291.69609</v>
+        <v>229.78152</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1182.05889</v>
+        <v>1132.06105</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1173.72922</v>
+        <v>1117.39534</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1101.05092</v>
+        <v>861.5873399999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>748.08006</v>
+        <v>654.2289000000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1232.36174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1232.35874</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2102.192</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>12.19754</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>101.54004</v>
+        <v>96.01342</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>184.29044</v>
+        <v>147.61071</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>385.82049</v>
+        <v>436.8222</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>227.56999</v>
+        <v>155.71334</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>291.69609</v>
+        <v>229.78152</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1182.05889</v>
+        <v>1132.06105</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1173.72922</v>
+        <v>1117.39534</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1100.1593</v>
+        <v>860.6957199999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>747.5905600000001</v>
+        <v>653.7394</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1232.36174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1232.35874</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2101.232</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>29.99384</v>
+        <v>24.21691</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>60.71582</v>
+        <v>56.48717</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>858.4844899999999</v>
+        <v>859.15728</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>240.25109</v>
+        <v>211.42534</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>160.75811</v>
+        <v>327.62129</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1938.69014</v>
+        <v>1919.57182</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>297.05579</v>
+        <v>254.97198</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>4592.330150000001</v>
+        <v>4552.52238</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>596.16796</v>
+        <v>517.52468</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2380.97632</v>
+        <v>2379.30517</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>457.34722</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>414.76387</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>942.035</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2795,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>0</v>
+        <v>216.74348</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1.48515</v>
@@ -2837,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>0.0411</v>
+        <v>0</v>
       </c>
       <c r="I53" s="48" t="n">
         <v>4.63814</v>
@@ -2854,164 +3000,187 @@
       <c r="M53" s="48" t="n">
         <v>30.66475</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>5.377</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>28.50869</v>
+        <v>22.73176</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>59.84207</v>
+        <v>55.61342</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>852.94379</v>
+        <v>853.61658</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>240.03499</v>
+        <v>211.20924</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>160.75811</v>
+        <v>110.87781</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1938.64904</v>
+        <v>1919.57182</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>292.41765</v>
+        <v>250.33384</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>4590.22843</v>
+        <v>4550.42066</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>581.43801</v>
+        <v>502.79473</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1810.32571</v>
+        <v>1808.65456</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>426.68247</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>384.09912</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>936.658</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>711.53216</v>
+        <v>785.18827</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1178.04719</v>
+        <v>884.30704</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1491.77386</v>
+        <v>1772.80977</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3722.16737</v>
+        <v>2191.336</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>6127.50167</v>
+        <v>3977.53699</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>5895.47764</v>
+        <v>4665.98762</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>10256.29473</v>
+        <v>9384.032380000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>6493.81969</v>
+        <v>6233.076889999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>18250.15498</v>
+        <v>16984.15253</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1870.06601</v>
+        <v>927.1694399999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>10090.22826</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>9132.430289999998</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>18103.218</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>198.45144</v>
+        <v>194.29062</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>224.71847</v>
+        <v>190.68061</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>435.28999</v>
+        <v>461.40176</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>899.38151</v>
+        <v>882.6719300000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1272.35192</v>
+        <v>1019.14254</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1544.69691</v>
+        <v>1296.47489</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2045.74557</v>
+        <v>1883.29927</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>2179.83502</v>
+        <v>2113.74674</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2576.8998</v>
+        <v>2423.0774</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1421.97138</v>
+        <v>1171.51888</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1598.58454</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1422.77232</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>3407.581</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>513.0807199999999</v>
+        <v>590.89765</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>953.32872</v>
+        <v>693.62643</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1056.48387</v>
+        <v>1311.40801</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2822.78586</v>
+        <v>1308.66407</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>4855.14975</v>
+        <v>2958.39445</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>4350.78073</v>
+        <v>3369.51273</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>8210.54916</v>
+        <v>7500.73311</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>4313.98467</v>
+        <v>4119.33015</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>15673.25518</v>
+        <v>14561.07513</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>448.09463</v>
+        <v>-244.34944</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>8491.64372</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>7709.657969999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>14695.637</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>36</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>41</v>
+      </c>
+      <c r="G59" s="35" t="n">
         <v>46</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>49</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>59</v>
-      </c>
       <c r="H59" s="35" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>45</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>